--- a/atomica/library/dt_databook.xlsx
+++ b/atomica/library/dt_databook.xlsx
@@ -1,22 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\atomica\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8D48EF9F-285F-E544-942B-2187FF1D394B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765D4473-E55B-433D-991C-DA914F118D9F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -29,6 +36,15 @@
     <t>Full Name</t>
   </si>
   <si>
+    <t>adults</t>
+  </si>
+  <si>
+    <t>Adults</t>
+  </si>
+  <si>
+    <t>All diagnosed</t>
+  </si>
+  <si>
     <t>Units</t>
   </si>
   <si>
@@ -48,15 +64,6 @@
   </si>
   <si>
     <t>Annual number lost to follow-up</t>
-  </si>
-  <si>
-    <t>adults</t>
-  </si>
-  <si>
-    <t>Adults</t>
-  </si>
-  <si>
-    <t>All diagnosed</t>
   </si>
 </sst>
 </file>
@@ -528,12 +535,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.83203125" customWidth="1"/>
+    <col min="1" max="2" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,12 +548,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -565,23 +572,23 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="3.83203125" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1">
@@ -597,17 +604,17 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2">
@@ -616,15 +623,15 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1">
@@ -640,17 +647,17 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2">
@@ -659,15 +666,15 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1">
@@ -683,17 +690,17 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2">
@@ -702,15 +709,15 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1">
@@ -726,17 +733,17 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2">
@@ -779,7 +786,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B11 B8 B5" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2 B11 B8 B5" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Number"</formula1>
     </dataValidation>
   </dataValidations>
